--- a/output_in_excel_manual.xlsx
+++ b/output_in_excel_manual.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://liveuclac-my.sharepoint.com/personal/ucabng1_ucl_ac_uk/Documents/Github/AiPacketClassifier/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="284" documentId="8_{4F7C7539-EC61-A64D-A5A6-7E7E306C9A62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{45E881B7-C99B-7948-B6AC-0FA2BC2A3ADB}"/>
+  <xr:revisionPtr revIDLastSave="469" documentId="8_{4F7C7539-EC61-A64D-A5A6-7E7E306C9A62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{46524643-4AAC-A646-917D-4D8D64EEF559}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="1" xr2:uid="{AF990951-8F97-8C4E-AC03-34AE8FEF4352}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="513" uniqueCount="20">
   <si>
     <t>Packet Number</t>
   </si>
@@ -5828,7 +5828,7 @@
   <dimension ref="A1:L324"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5908,16 +5908,36 @@
       <c r="B3" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4"/>
-      <c r="J3" s="4"/>
-      <c r="K3" s="4"/>
-      <c r="L3" s="4"/>
+      <c r="C3" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="K3" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="L3" s="4" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" s="5">
@@ -5926,9 +5946,15 @@
       <c r="B4" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
+      <c r="C4" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="F4" s="4"/>
       <c r="G4" s="4"/>
       <c r="H4" s="4"/>
@@ -5944,9 +5970,15 @@
       <c r="B5" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
+      <c r="C5" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>17</v>
+      </c>
       <c r="F5" s="4"/>
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
@@ -5962,9 +5994,15 @@
       <c r="B6" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
+      <c r="C6" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="F6" s="4"/>
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
@@ -5980,9 +6018,15 @@
       <c r="B7" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
+      <c r="C7" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="F7" s="4"/>
       <c r="G7" s="4"/>
       <c r="H7" s="4"/>
@@ -5998,9 +6042,15 @@
       <c r="B8" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
+      <c r="C8" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="F8" s="4"/>
       <c r="G8" s="4"/>
       <c r="H8" s="4"/>
@@ -6016,9 +6066,15 @@
       <c r="B9" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
+      <c r="C9" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="F9" s="4"/>
       <c r="G9" s="4"/>
       <c r="H9" s="4"/>
@@ -6034,9 +6090,15 @@
       <c r="B10" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
+      <c r="C10" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="F10" s="4"/>
       <c r="G10" s="4"/>
       <c r="H10" s="4"/>
@@ -6052,9 +6114,15 @@
       <c r="B11" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
+      <c r="C11" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="F11" s="4"/>
       <c r="G11" s="4"/>
       <c r="H11" s="4"/>
@@ -6070,9 +6138,15 @@
       <c r="B12" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
+      <c r="C12" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>17</v>
+      </c>
       <c r="F12" s="4"/>
       <c r="G12" s="4"/>
       <c r="H12" s="4"/>
@@ -6088,9 +6162,15 @@
       <c r="B13" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
+      <c r="C13" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>17</v>
+      </c>
       <c r="F13" s="4"/>
       <c r="G13" s="4"/>
       <c r="H13" s="4"/>
@@ -6106,9 +6186,15 @@
       <c r="B14" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
+      <c r="C14" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="F14" s="4"/>
       <c r="G14" s="4"/>
       <c r="H14" s="4"/>
@@ -6124,9 +6210,15 @@
       <c r="B15" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
+      <c r="C15" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="F15" s="4"/>
       <c r="G15" s="4"/>
       <c r="H15" s="4"/>
@@ -6142,9 +6234,15 @@
       <c r="B16" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
+      <c r="C16" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="F16" s="4"/>
       <c r="G16" s="4"/>
       <c r="H16" s="4"/>
@@ -6160,9 +6258,15 @@
       <c r="B17" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4"/>
+      <c r="C17" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="F17" s="4"/>
       <c r="G17" s="4"/>
       <c r="H17" s="4"/>
@@ -6178,9 +6282,15 @@
       <c r="B18" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="4"/>
+      <c r="C18" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="F18" s="4"/>
       <c r="G18" s="4"/>
       <c r="H18" s="4"/>
@@ -6196,9 +6306,15 @@
       <c r="B19" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="4"/>
+      <c r="C19" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="F19" s="4"/>
       <c r="G19" s="4"/>
       <c r="H19" s="4"/>
@@ -6214,9 +6330,15 @@
       <c r="B20" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C20" s="4"/>
-      <c r="D20" s="4"/>
-      <c r="E20" s="4"/>
+      <c r="C20" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="F20" s="4"/>
       <c r="G20" s="4"/>
       <c r="H20" s="4"/>
@@ -6229,10 +6351,18 @@
       <c r="A21" s="5">
         <v>18</v>
       </c>
-      <c r="B21" s="4"/>
-      <c r="C21" s="4"/>
-      <c r="D21" s="4"/>
-      <c r="E21" s="4"/>
+      <c r="B21" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="F21" s="4"/>
       <c r="G21" s="4"/>
       <c r="H21" s="4"/>
@@ -6245,10 +6375,18 @@
       <c r="A22" s="5">
         <v>19</v>
       </c>
-      <c r="B22" s="4"/>
-      <c r="C22" s="4"/>
-      <c r="D22" s="4"/>
-      <c r="E22" s="4"/>
+      <c r="B22" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="F22" s="4"/>
       <c r="G22" s="4"/>
       <c r="H22" s="4"/>
@@ -6261,10 +6399,18 @@
       <c r="A23" s="5">
         <v>20</v>
       </c>
-      <c r="B23" s="4"/>
-      <c r="C23" s="4"/>
-      <c r="D23" s="4"/>
-      <c r="E23" s="4"/>
+      <c r="B23" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="F23" s="4"/>
       <c r="G23" s="4"/>
       <c r="H23" s="4"/>
@@ -6277,10 +6423,18 @@
       <c r="A24" s="5">
         <v>21</v>
       </c>
-      <c r="B24" s="4"/>
-      <c r="C24" s="4"/>
-      <c r="D24" s="4"/>
-      <c r="E24" s="4"/>
+      <c r="B24" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="F24" s="4"/>
       <c r="G24" s="4"/>
       <c r="H24" s="4"/>
@@ -6293,10 +6447,18 @@
       <c r="A25" s="5">
         <v>22</v>
       </c>
-      <c r="B25" s="4"/>
-      <c r="C25" s="4"/>
-      <c r="D25" s="4"/>
-      <c r="E25" s="4"/>
+      <c r="B25" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="F25" s="4"/>
       <c r="G25" s="4"/>
       <c r="H25" s="4"/>
@@ -6309,10 +6471,18 @@
       <c r="A26" s="5">
         <v>23</v>
       </c>
-      <c r="B26" s="4"/>
-      <c r="C26" s="4"/>
-      <c r="D26" s="4"/>
-      <c r="E26" s="4"/>
+      <c r="B26" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="F26" s="4"/>
       <c r="G26" s="4"/>
       <c r="H26" s="4"/>
@@ -6325,10 +6495,16 @@
       <c r="A27" s="5">
         <v>24</v>
       </c>
-      <c r="B27" s="4"/>
+      <c r="B27" s="4" t="s">
+        <v>14</v>
+      </c>
       <c r="C27" s="4"/>
-      <c r="D27" s="4"/>
-      <c r="E27" s="4"/>
+      <c r="D27" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E27" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="F27" s="4"/>
       <c r="G27" s="4"/>
       <c r="H27" s="4"/>
@@ -6341,10 +6517,16 @@
       <c r="A28" s="5">
         <v>25</v>
       </c>
-      <c r="B28" s="4"/>
+      <c r="B28" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="C28" s="4"/>
-      <c r="D28" s="4"/>
-      <c r="E28" s="4"/>
+      <c r="D28" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E28" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="F28" s="4"/>
       <c r="G28" s="4"/>
       <c r="H28" s="4"/>
@@ -6357,10 +6539,16 @@
       <c r="A29" s="5">
         <v>26</v>
       </c>
-      <c r="B29" s="4"/>
+      <c r="B29" s="4" t="s">
+        <v>14</v>
+      </c>
       <c r="C29" s="4"/>
-      <c r="D29" s="4"/>
-      <c r="E29" s="4"/>
+      <c r="D29" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E29" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="F29" s="4"/>
       <c r="G29" s="4"/>
       <c r="H29" s="4"/>
@@ -6373,10 +6561,16 @@
       <c r="A30" s="5">
         <v>27</v>
       </c>
-      <c r="B30" s="4"/>
+      <c r="B30" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="C30" s="4"/>
-      <c r="D30" s="4"/>
-      <c r="E30" s="4"/>
+      <c r="D30" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E30" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="F30" s="4"/>
       <c r="G30" s="4"/>
       <c r="H30" s="4"/>
@@ -6389,10 +6583,16 @@
       <c r="A31" s="5">
         <v>28</v>
       </c>
-      <c r="B31" s="4"/>
+      <c r="B31" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="C31" s="4"/>
-      <c r="D31" s="4"/>
-      <c r="E31" s="4"/>
+      <c r="D31" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E31" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="F31" s="4"/>
       <c r="G31" s="4"/>
       <c r="H31" s="4"/>
@@ -6405,10 +6605,16 @@
       <c r="A32" s="5">
         <v>29</v>
       </c>
-      <c r="B32" s="4"/>
+      <c r="B32" s="4" t="s">
+        <v>14</v>
+      </c>
       <c r="C32" s="4"/>
-      <c r="D32" s="4"/>
-      <c r="E32" s="4"/>
+      <c r="D32" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E32" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="F32" s="4"/>
       <c r="G32" s="4"/>
       <c r="H32" s="4"/>
@@ -6421,10 +6627,16 @@
       <c r="A33" s="5">
         <v>30</v>
       </c>
-      <c r="B33" s="4"/>
+      <c r="B33" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="C33" s="4"/>
-      <c r="D33" s="4"/>
-      <c r="E33" s="4"/>
+      <c r="D33" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E33" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="F33" s="4"/>
       <c r="G33" s="4"/>
       <c r="H33" s="4"/>
@@ -6437,10 +6649,16 @@
       <c r="A34" s="5">
         <v>31</v>
       </c>
-      <c r="B34" s="4"/>
+      <c r="B34" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="C34" s="4"/>
-      <c r="D34" s="4"/>
-      <c r="E34" s="4"/>
+      <c r="D34" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E34" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="F34" s="4"/>
       <c r="G34" s="4"/>
       <c r="H34" s="4"/>
@@ -6453,10 +6671,16 @@
       <c r="A35" s="5">
         <v>32</v>
       </c>
-      <c r="B35" s="4"/>
+      <c r="B35" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="C35" s="4"/>
-      <c r="D35" s="4"/>
-      <c r="E35" s="4"/>
+      <c r="D35" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E35" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="F35" s="4"/>
       <c r="G35" s="4"/>
       <c r="H35" s="4"/>
@@ -6469,10 +6693,16 @@
       <c r="A36" s="5">
         <v>33</v>
       </c>
-      <c r="B36" s="4"/>
+      <c r="B36" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="C36" s="4"/>
-      <c r="D36" s="4"/>
-      <c r="E36" s="4"/>
+      <c r="D36" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E36" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="F36" s="4"/>
       <c r="G36" s="4"/>
       <c r="H36" s="4"/>
@@ -6485,10 +6715,16 @@
       <c r="A37" s="5">
         <v>34</v>
       </c>
-      <c r="B37" s="4"/>
+      <c r="B37" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="C37" s="4"/>
-      <c r="D37" s="4"/>
-      <c r="E37" s="4"/>
+      <c r="D37" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E37" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="F37" s="4"/>
       <c r="G37" s="4"/>
       <c r="H37" s="4"/>
@@ -6501,9 +6737,13 @@
       <c r="A38" s="5">
         <v>35</v>
       </c>
-      <c r="B38" s="4"/>
+      <c r="B38" s="4" t="s">
+        <v>14</v>
+      </c>
       <c r="C38" s="4"/>
-      <c r="D38" s="4"/>
+      <c r="D38" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="E38" s="4"/>
       <c r="F38" s="4"/>
       <c r="G38" s="4"/>
@@ -6517,9 +6757,13 @@
       <c r="A39" s="5">
         <v>36</v>
       </c>
-      <c r="B39" s="4"/>
+      <c r="B39" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="C39" s="4"/>
-      <c r="D39" s="4"/>
+      <c r="D39" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="E39" s="4"/>
       <c r="F39" s="4"/>
       <c r="G39" s="4"/>
@@ -6533,9 +6777,13 @@
       <c r="A40" s="5">
         <v>37</v>
       </c>
-      <c r="B40" s="4"/>
+      <c r="B40" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="C40" s="4"/>
-      <c r="D40" s="4"/>
+      <c r="D40" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="E40" s="4"/>
       <c r="F40" s="4"/>
       <c r="G40" s="4"/>
@@ -6549,9 +6797,13 @@
       <c r="A41" s="5">
         <v>38</v>
       </c>
-      <c r="B41" s="4"/>
+      <c r="B41" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="C41" s="4"/>
-      <c r="D41" s="4"/>
+      <c r="D41" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="E41" s="4"/>
       <c r="F41" s="4"/>
       <c r="G41" s="4"/>
@@ -6565,9 +6817,13 @@
       <c r="A42" s="5">
         <v>39</v>
       </c>
-      <c r="B42" s="4"/>
+      <c r="B42" s="4" t="s">
+        <v>14</v>
+      </c>
       <c r="C42" s="4"/>
-      <c r="D42" s="4"/>
+      <c r="D42" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="E42" s="4"/>
       <c r="F42" s="4"/>
       <c r="G42" s="4"/>
@@ -6581,9 +6837,13 @@
       <c r="A43" s="5">
         <v>40</v>
       </c>
-      <c r="B43" s="4"/>
+      <c r="B43" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="C43" s="4"/>
-      <c r="D43" s="4"/>
+      <c r="D43" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="E43" s="4"/>
       <c r="F43" s="4"/>
       <c r="G43" s="4"/>
@@ -6597,9 +6857,13 @@
       <c r="A44" s="5">
         <v>41</v>
       </c>
-      <c r="B44" s="4"/>
+      <c r="B44" s="4" t="s">
+        <v>14</v>
+      </c>
       <c r="C44" s="4"/>
-      <c r="D44" s="4"/>
+      <c r="D44" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="E44" s="4"/>
       <c r="F44" s="4"/>
       <c r="G44" s="4"/>
@@ -6613,9 +6877,13 @@
       <c r="A45" s="5">
         <v>42</v>
       </c>
-      <c r="B45" s="4"/>
+      <c r="B45" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="C45" s="4"/>
-      <c r="D45" s="4"/>
+      <c r="D45" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="E45" s="4"/>
       <c r="F45" s="4"/>
       <c r="G45" s="4"/>
@@ -6629,9 +6897,13 @@
       <c r="A46" s="5">
         <v>43</v>
       </c>
-      <c r="B46" s="4"/>
+      <c r="B46" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="C46" s="4"/>
-      <c r="D46" s="4"/>
+      <c r="D46" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="E46" s="4"/>
       <c r="F46" s="4"/>
       <c r="G46" s="4"/>
@@ -6645,9 +6917,13 @@
       <c r="A47" s="5">
         <v>44</v>
       </c>
-      <c r="B47" s="4"/>
+      <c r="B47" s="4" t="s">
+        <v>14</v>
+      </c>
       <c r="C47" s="4"/>
-      <c r="D47" s="4"/>
+      <c r="D47" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="E47" s="4"/>
       <c r="F47" s="4"/>
       <c r="G47" s="4"/>
@@ -6661,9 +6937,13 @@
       <c r="A48" s="5">
         <v>45</v>
       </c>
-      <c r="B48" s="4"/>
+      <c r="B48" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="C48" s="4"/>
-      <c r="D48" s="4"/>
+      <c r="D48" s="4" t="s">
+        <v>17</v>
+      </c>
       <c r="E48" s="4"/>
       <c r="F48" s="4"/>
       <c r="G48" s="4"/>
@@ -6677,9 +6957,13 @@
       <c r="A49" s="5">
         <v>46</v>
       </c>
-      <c r="B49" s="4"/>
+      <c r="B49" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="C49" s="4"/>
-      <c r="D49" s="4"/>
+      <c r="D49" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="E49" s="4"/>
       <c r="F49" s="4"/>
       <c r="G49" s="4"/>
@@ -6693,9 +6977,13 @@
       <c r="A50" s="5">
         <v>47</v>
       </c>
-      <c r="B50" s="4"/>
+      <c r="B50" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="C50" s="4"/>
-      <c r="D50" s="4"/>
+      <c r="D50" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="E50" s="4"/>
       <c r="F50" s="4"/>
       <c r="G50" s="4"/>
@@ -6711,7 +6999,9 @@
       </c>
       <c r="B51" s="4"/>
       <c r="C51" s="4"/>
-      <c r="D51" s="4"/>
+      <c r="D51" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="E51" s="4"/>
       <c r="F51" s="4"/>
       <c r="G51" s="4"/>
@@ -6727,7 +7017,9 @@
       </c>
       <c r="B52" s="4"/>
       <c r="C52" s="4"/>
-      <c r="D52" s="4"/>
+      <c r="D52" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="E52" s="4"/>
       <c r="F52" s="4"/>
       <c r="G52" s="4"/>
@@ -6743,7 +7035,9 @@
       </c>
       <c r="B53" s="4"/>
       <c r="C53" s="4"/>
-      <c r="D53" s="4"/>
+      <c r="D53" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="E53" s="4"/>
       <c r="F53" s="4"/>
       <c r="G53" s="4"/>
@@ -6759,7 +7053,9 @@
       </c>
       <c r="B54" s="4"/>
       <c r="C54" s="4"/>
-      <c r="D54" s="4"/>
+      <c r="D54" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="E54" s="4"/>
       <c r="F54" s="4"/>
       <c r="G54" s="4"/>
@@ -6775,7 +7071,9 @@
       </c>
       <c r="B55" s="4"/>
       <c r="C55" s="4"/>
-      <c r="D55" s="4"/>
+      <c r="D55" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="E55" s="4"/>
       <c r="F55" s="4"/>
       <c r="G55" s="4"/>
@@ -6791,7 +7089,9 @@
       </c>
       <c r="B56" s="4"/>
       <c r="C56" s="4"/>
-      <c r="D56" s="4"/>
+      <c r="D56" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="E56" s="4"/>
       <c r="F56" s="4"/>
       <c r="G56" s="4"/>
@@ -6807,7 +7107,9 @@
       </c>
       <c r="B57" s="4"/>
       <c r="C57" s="4"/>
-      <c r="D57" s="4"/>
+      <c r="D57" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="E57" s="4"/>
       <c r="F57" s="4"/>
       <c r="G57" s="4"/>
@@ -6823,7 +7125,9 @@
       </c>
       <c r="B58" s="4"/>
       <c r="C58" s="4"/>
-      <c r="D58" s="4"/>
+      <c r="D58" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="E58" s="4"/>
       <c r="F58" s="4"/>
       <c r="G58" s="4"/>
@@ -6839,7 +7143,9 @@
       </c>
       <c r="B59" s="4"/>
       <c r="C59" s="4"/>
-      <c r="D59" s="4"/>
+      <c r="D59" s="4" t="s">
+        <v>17</v>
+      </c>
       <c r="E59" s="4"/>
       <c r="F59" s="4"/>
       <c r="G59" s="4"/>
@@ -6855,7 +7161,9 @@
       </c>
       <c r="B60" s="4"/>
       <c r="C60" s="4"/>
-      <c r="D60" s="4"/>
+      <c r="D60" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="E60" s="4"/>
       <c r="F60" s="4"/>
       <c r="G60" s="4"/>
@@ -6871,7 +7179,9 @@
       </c>
       <c r="B61" s="4"/>
       <c r="C61" s="4"/>
-      <c r="D61" s="4"/>
+      <c r="D61" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="E61" s="4"/>
       <c r="F61" s="4"/>
       <c r="G61" s="4"/>
@@ -6887,7 +7197,9 @@
       </c>
       <c r="B62" s="4"/>
       <c r="C62" s="4"/>
-      <c r="D62" s="4"/>
+      <c r="D62" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="E62" s="4"/>
       <c r="F62" s="4"/>
       <c r="G62" s="4"/>
@@ -6903,7 +7215,9 @@
       </c>
       <c r="B63" s="4"/>
       <c r="C63" s="4"/>
-      <c r="D63" s="4"/>
+      <c r="D63" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="E63" s="4"/>
       <c r="F63" s="4"/>
       <c r="G63" s="4"/>
@@ -6919,7 +7233,9 @@
       </c>
       <c r="B64" s="4"/>
       <c r="C64" s="4"/>
-      <c r="D64" s="4"/>
+      <c r="D64" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="E64" s="4"/>
       <c r="F64" s="4"/>
       <c r="G64" s="4"/>
@@ -6935,7 +7251,9 @@
       </c>
       <c r="B65" s="4"/>
       <c r="C65" s="4"/>
-      <c r="D65" s="4"/>
+      <c r="D65" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="E65" s="4"/>
       <c r="F65" s="4"/>
       <c r="G65" s="4"/>
@@ -6951,7 +7269,9 @@
       </c>
       <c r="B66" s="4"/>
       <c r="C66" s="4"/>
-      <c r="D66" s="4"/>
+      <c r="D66" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="E66" s="4"/>
       <c r="F66" s="4"/>
       <c r="G66" s="4"/>
@@ -6967,7 +7287,9 @@
       </c>
       <c r="B67" s="4"/>
       <c r="C67" s="4"/>
-      <c r="D67" s="4"/>
+      <c r="D67" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="E67" s="4"/>
       <c r="F67" s="4"/>
       <c r="G67" s="4"/>
@@ -6983,7 +7305,9 @@
       </c>
       <c r="B68" s="4"/>
       <c r="C68" s="4"/>
-      <c r="D68" s="4"/>
+      <c r="D68" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="E68" s="4"/>
       <c r="F68" s="4"/>
       <c r="G68" s="4"/>
@@ -6999,7 +7323,9 @@
       </c>
       <c r="B69" s="4"/>
       <c r="C69" s="4"/>
-      <c r="D69" s="4"/>
+      <c r="D69" s="4" t="s">
+        <v>17</v>
+      </c>
       <c r="E69" s="4"/>
       <c r="F69" s="4"/>
       <c r="G69" s="4"/>
@@ -7015,7 +7341,9 @@
       </c>
       <c r="B70" s="4"/>
       <c r="C70" s="4"/>
-      <c r="D70" s="4"/>
+      <c r="D70" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="E70" s="4"/>
       <c r="F70" s="4"/>
       <c r="G70" s="4"/>
@@ -7031,7 +7359,9 @@
       </c>
       <c r="B71" s="4"/>
       <c r="C71" s="4"/>
-      <c r="D71" s="4"/>
+      <c r="D71" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="E71" s="4"/>
       <c r="F71" s="4"/>
       <c r="G71" s="4"/>
@@ -7047,7 +7377,9 @@
       </c>
       <c r="B72" s="4"/>
       <c r="C72" s="4"/>
-      <c r="D72" s="4"/>
+      <c r="D72" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="E72" s="4"/>
       <c r="F72" s="4"/>
       <c r="G72" s="4"/>
@@ -7063,7 +7395,9 @@
       </c>
       <c r="B73" s="4"/>
       <c r="C73" s="4"/>
-      <c r="D73" s="4"/>
+      <c r="D73" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="E73" s="4"/>
       <c r="F73" s="4"/>
       <c r="G73" s="4"/>
@@ -7079,7 +7413,9 @@
       </c>
       <c r="B74" s="4"/>
       <c r="C74" s="4"/>
-      <c r="D74" s="4"/>
+      <c r="D74" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="E74" s="4"/>
       <c r="F74" s="4"/>
       <c r="G74" s="4"/>
@@ -7095,7 +7431,9 @@
       </c>
       <c r="B75" s="4"/>
       <c r="C75" s="4"/>
-      <c r="D75" s="4"/>
+      <c r="D75" s="4" t="s">
+        <v>17</v>
+      </c>
       <c r="E75" s="4"/>
       <c r="F75" s="4"/>
       <c r="G75" s="4"/>
@@ -7111,7 +7449,9 @@
       </c>
       <c r="B76" s="4"/>
       <c r="C76" s="4"/>
-      <c r="D76" s="4"/>
+      <c r="D76" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="E76" s="4"/>
       <c r="F76" s="4"/>
       <c r="G76" s="4"/>
@@ -7127,7 +7467,9 @@
       </c>
       <c r="B77" s="4"/>
       <c r="C77" s="4"/>
-      <c r="D77" s="4"/>
+      <c r="D77" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="E77" s="4"/>
       <c r="F77" s="4"/>
       <c r="G77" s="4"/>
@@ -7143,7 +7485,9 @@
       </c>
       <c r="B78" s="4"/>
       <c r="C78" s="4"/>
-      <c r="D78" s="4"/>
+      <c r="D78" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="E78" s="4"/>
       <c r="F78" s="4"/>
       <c r="G78" s="4"/>
@@ -7159,7 +7503,9 @@
       </c>
       <c r="B79" s="4"/>
       <c r="C79" s="4"/>
-      <c r="D79" s="4"/>
+      <c r="D79" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="E79" s="4"/>
       <c r="F79" s="4"/>
       <c r="G79" s="4"/>
@@ -7175,7 +7521,9 @@
       </c>
       <c r="B80" s="4"/>
       <c r="C80" s="4"/>
-      <c r="D80" s="4"/>
+      <c r="D80" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="E80" s="4"/>
       <c r="F80" s="4"/>
       <c r="G80" s="4"/>
@@ -7191,7 +7539,9 @@
       </c>
       <c r="B81" s="4"/>
       <c r="C81" s="4"/>
-      <c r="D81" s="4"/>
+      <c r="D81" s="4" t="s">
+        <v>17</v>
+      </c>
       <c r="E81" s="4"/>
       <c r="F81" s="4"/>
       <c r="G81" s="4"/>
@@ -7207,7 +7557,9 @@
       </c>
       <c r="B82" s="4"/>
       <c r="C82" s="4"/>
-      <c r="D82" s="4"/>
+      <c r="D82" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="E82" s="4"/>
       <c r="F82" s="4"/>
       <c r="G82" s="4"/>
@@ -7223,7 +7575,9 @@
       </c>
       <c r="B83" s="4"/>
       <c r="C83" s="4"/>
-      <c r="D83" s="4"/>
+      <c r="D83" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="E83" s="4"/>
       <c r="F83" s="4"/>
       <c r="G83" s="4"/>
@@ -7239,7 +7593,9 @@
       </c>
       <c r="B84" s="4"/>
       <c r="C84" s="4"/>
-      <c r="D84" s="4"/>
+      <c r="D84" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="E84" s="4"/>
       <c r="F84" s="4"/>
       <c r="G84" s="4"/>
@@ -7255,7 +7611,9 @@
       </c>
       <c r="B85" s="4"/>
       <c r="C85" s="4"/>
-      <c r="D85" s="4"/>
+      <c r="D85" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="E85" s="4"/>
       <c r="F85" s="4"/>
       <c r="G85" s="4"/>
@@ -7271,7 +7629,9 @@
       </c>
       <c r="B86" s="4"/>
       <c r="C86" s="4"/>
-      <c r="D86" s="4"/>
+      <c r="D86" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="E86" s="4"/>
       <c r="F86" s="4"/>
       <c r="G86" s="4"/>
@@ -7287,7 +7647,9 @@
       </c>
       <c r="B87" s="4"/>
       <c r="C87" s="4"/>
-      <c r="D87" s="4"/>
+      <c r="D87" s="4" t="s">
+        <v>17</v>
+      </c>
       <c r="E87" s="4"/>
       <c r="F87" s="4"/>
       <c r="G87" s="4"/>
@@ -7303,7 +7665,9 @@
       </c>
       <c r="B88" s="4"/>
       <c r="C88" s="4"/>
-      <c r="D88" s="4"/>
+      <c r="D88" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="E88" s="4"/>
       <c r="F88" s="4"/>
       <c r="G88" s="4"/>
@@ -7319,7 +7683,9 @@
       </c>
       <c r="B89" s="4"/>
       <c r="C89" s="4"/>
-      <c r="D89" s="4"/>
+      <c r="D89" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="E89" s="4"/>
       <c r="F89" s="4"/>
       <c r="G89" s="4"/>
@@ -7335,7 +7701,9 @@
       </c>
       <c r="B90" s="4"/>
       <c r="C90" s="4"/>
-      <c r="D90" s="4"/>
+      <c r="D90" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="E90" s="4"/>
       <c r="F90" s="4"/>
       <c r="G90" s="4"/>
@@ -7351,7 +7719,9 @@
       </c>
       <c r="B91" s="4"/>
       <c r="C91" s="4"/>
-      <c r="D91" s="4"/>
+      <c r="D91" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="E91" s="4"/>
       <c r="F91" s="4"/>
       <c r="G91" s="4"/>
@@ -7367,7 +7737,9 @@
       </c>
       <c r="B92" s="4"/>
       <c r="C92" s="4"/>
-      <c r="D92" s="4"/>
+      <c r="D92" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="E92" s="4"/>
       <c r="F92" s="4"/>
       <c r="G92" s="4"/>
@@ -7383,7 +7755,9 @@
       </c>
       <c r="B93" s="4"/>
       <c r="C93" s="4"/>
-      <c r="D93" s="4"/>
+      <c r="D93" s="4" t="s">
+        <v>17</v>
+      </c>
       <c r="E93" s="4"/>
       <c r="F93" s="4"/>
       <c r="G93" s="4"/>
@@ -7399,7 +7773,9 @@
       </c>
       <c r="B94" s="4"/>
       <c r="C94" s="4"/>
-      <c r="D94" s="4"/>
+      <c r="D94" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="E94" s="4"/>
       <c r="F94" s="4"/>
       <c r="G94" s="4"/>
@@ -7415,7 +7791,9 @@
       </c>
       <c r="B95" s="4"/>
       <c r="C95" s="4"/>
-      <c r="D95" s="4"/>
+      <c r="D95" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="E95" s="4"/>
       <c r="F95" s="4"/>
       <c r="G95" s="4"/>
@@ -7431,7 +7809,9 @@
       </c>
       <c r="B96" s="4"/>
       <c r="C96" s="4"/>
-      <c r="D96" s="4"/>
+      <c r="D96" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="E96" s="4"/>
       <c r="F96" s="4"/>
       <c r="G96" s="4"/>
@@ -7447,7 +7827,9 @@
       </c>
       <c r="B97" s="4"/>
       <c r="C97" s="4"/>
-      <c r="D97" s="4"/>
+      <c r="D97" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="E97" s="4"/>
       <c r="F97" s="4"/>
       <c r="G97" s="4"/>
@@ -7463,7 +7845,9 @@
       </c>
       <c r="B98" s="4"/>
       <c r="C98" s="4"/>
-      <c r="D98" s="4"/>
+      <c r="D98" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="E98" s="4"/>
       <c r="F98" s="4"/>
       <c r="G98" s="4"/>
@@ -7479,7 +7863,9 @@
       </c>
       <c r="B99" s="4"/>
       <c r="C99" s="4"/>
-      <c r="D99" s="4"/>
+      <c r="D99" s="4" t="s">
+        <v>17</v>
+      </c>
       <c r="E99" s="4"/>
       <c r="F99" s="4"/>
       <c r="G99" s="4"/>
@@ -7495,7 +7881,9 @@
       </c>
       <c r="B100" s="4"/>
       <c r="C100" s="4"/>
-      <c r="D100" s="4"/>
+      <c r="D100" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="E100" s="4"/>
       <c r="F100" s="4"/>
       <c r="G100" s="4"/>
@@ -7511,7 +7899,9 @@
       </c>
       <c r="B101" s="4"/>
       <c r="C101" s="4"/>
-      <c r="D101" s="4"/>
+      <c r="D101" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="E101" s="4"/>
       <c r="F101" s="4"/>
       <c r="G101" s="4"/>
@@ -7527,7 +7917,9 @@
       </c>
       <c r="B102" s="4"/>
       <c r="C102" s="4"/>
-      <c r="D102" s="4"/>
+      <c r="D102" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="E102" s="4"/>
       <c r="F102" s="4"/>
       <c r="G102" s="4"/>
@@ -7543,7 +7935,9 @@
       </c>
       <c r="B103" s="4"/>
       <c r="C103" s="4"/>
-      <c r="D103" s="4"/>
+      <c r="D103" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="E103" s="4"/>
       <c r="F103" s="4"/>
       <c r="G103" s="4"/>
@@ -7559,7 +7953,9 @@
       </c>
       <c r="B104" s="4"/>
       <c r="C104" s="4"/>
-      <c r="D104" s="4"/>
+      <c r="D104" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="E104" s="4"/>
       <c r="F104" s="4"/>
       <c r="G104" s="4"/>
@@ -7575,7 +7971,9 @@
       </c>
       <c r="B105" s="4"/>
       <c r="C105" s="4"/>
-      <c r="D105" s="4"/>
+      <c r="D105" s="4" t="s">
+        <v>17</v>
+      </c>
       <c r="E105" s="4"/>
       <c r="F105" s="4"/>
       <c r="G105" s="4"/>
@@ -7591,7 +7989,9 @@
       </c>
       <c r="B106" s="4"/>
       <c r="C106" s="4"/>
-      <c r="D106" s="4"/>
+      <c r="D106" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="E106" s="4"/>
       <c r="F106" s="4"/>
       <c r="G106" s="4"/>
@@ -7607,7 +8007,9 @@
       </c>
       <c r="B107" s="4"/>
       <c r="C107" s="4"/>
-      <c r="D107" s="4"/>
+      <c r="D107" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="E107" s="4"/>
       <c r="F107" s="4"/>
       <c r="G107" s="4"/>
@@ -7623,7 +8025,9 @@
       </c>
       <c r="B108" s="4"/>
       <c r="C108" s="4"/>
-      <c r="D108" s="4"/>
+      <c r="D108" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="E108" s="4"/>
       <c r="F108" s="4"/>
       <c r="G108" s="4"/>
@@ -7639,7 +8043,9 @@
       </c>
       <c r="B109" s="4"/>
       <c r="C109" s="4"/>
-      <c r="D109" s="4"/>
+      <c r="D109" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="E109" s="4"/>
       <c r="F109" s="4"/>
       <c r="G109" s="4"/>
@@ -7655,7 +8061,9 @@
       </c>
       <c r="B110" s="4"/>
       <c r="C110" s="4"/>
-      <c r="D110" s="4"/>
+      <c r="D110" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="E110" s="4"/>
       <c r="F110" s="4"/>
       <c r="G110" s="4"/>
@@ -7671,7 +8079,9 @@
       </c>
       <c r="B111" s="4"/>
       <c r="C111" s="4"/>
-      <c r="D111" s="4"/>
+      <c r="D111" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="E111" s="4"/>
       <c r="F111" s="4"/>
       <c r="G111" s="4"/>
@@ -7687,7 +8097,9 @@
       </c>
       <c r="B112" s="4"/>
       <c r="C112" s="4"/>
-      <c r="D112" s="4"/>
+      <c r="D112" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="E112" s="4"/>
       <c r="F112" s="4"/>
       <c r="G112" s="4"/>
@@ -7703,7 +8115,9 @@
       </c>
       <c r="B113" s="4"/>
       <c r="C113" s="4"/>
-      <c r="D113" s="4"/>
+      <c r="D113" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="E113" s="4"/>
       <c r="F113" s="4"/>
       <c r="G113" s="4"/>
@@ -7719,7 +8133,9 @@
       </c>
       <c r="B114" s="4"/>
       <c r="C114" s="4"/>
-      <c r="D114" s="4"/>
+      <c r="D114" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="E114" s="4"/>
       <c r="F114" s="4"/>
       <c r="G114" s="4"/>
@@ -7735,7 +8151,9 @@
       </c>
       <c r="B115" s="4"/>
       <c r="C115" s="4"/>
-      <c r="D115" s="4"/>
+      <c r="D115" s="4" t="s">
+        <v>17</v>
+      </c>
       <c r="E115" s="4"/>
       <c r="F115" s="4"/>
       <c r="G115" s="4"/>
@@ -7751,7 +8169,9 @@
       </c>
       <c r="B116" s="4"/>
       <c r="C116" s="4"/>
-      <c r="D116" s="4"/>
+      <c r="D116" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="E116" s="4"/>
       <c r="F116" s="4"/>
       <c r="G116" s="4"/>
@@ -7767,7 +8187,9 @@
       </c>
       <c r="B117" s="4"/>
       <c r="C117" s="4"/>
-      <c r="D117" s="4"/>
+      <c r="D117" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="E117" s="4"/>
       <c r="F117" s="4"/>
       <c r="G117" s="4"/>
@@ -7783,7 +8205,9 @@
       </c>
       <c r="B118" s="4"/>
       <c r="C118" s="4"/>
-      <c r="D118" s="4"/>
+      <c r="D118" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="E118" s="4"/>
       <c r="F118" s="4"/>
       <c r="G118" s="4"/>
@@ -7799,7 +8223,9 @@
       </c>
       <c r="B119" s="4"/>
       <c r="C119" s="4"/>
-      <c r="D119" s="4"/>
+      <c r="D119" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="E119" s="4"/>
       <c r="F119" s="4"/>
       <c r="G119" s="4"/>
@@ -7815,7 +8241,9 @@
       </c>
       <c r="B120" s="4"/>
       <c r="C120" s="4"/>
-      <c r="D120" s="4"/>
+      <c r="D120" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="E120" s="4"/>
       <c r="F120" s="4"/>
       <c r="G120" s="4"/>
@@ -7831,7 +8259,9 @@
       </c>
       <c r="B121" s="4"/>
       <c r="C121" s="4"/>
-      <c r="D121" s="4"/>
+      <c r="D121" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="E121" s="4"/>
       <c r="F121" s="4"/>
       <c r="G121" s="4"/>
@@ -7847,7 +8277,9 @@
       </c>
       <c r="B122" s="4"/>
       <c r="C122" s="4"/>
-      <c r="D122" s="4"/>
+      <c r="D122" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="E122" s="4"/>
       <c r="F122" s="4"/>
       <c r="G122" s="4"/>
@@ -7863,7 +8295,9 @@
       </c>
       <c r="B123" s="4"/>
       <c r="C123" s="4"/>
-      <c r="D123" s="4"/>
+      <c r="D123" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="E123" s="4"/>
       <c r="F123" s="4"/>
       <c r="G123" s="4"/>
@@ -7879,7 +8313,9 @@
       </c>
       <c r="B124" s="4"/>
       <c r="C124" s="4"/>
-      <c r="D124" s="4"/>
+      <c r="D124" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="E124" s="4"/>
       <c r="F124" s="4"/>
       <c r="G124" s="4"/>
@@ -7895,7 +8331,9 @@
       </c>
       <c r="B125" s="4"/>
       <c r="C125" s="4"/>
-      <c r="D125" s="4"/>
+      <c r="D125" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="E125" s="4"/>
       <c r="F125" s="4"/>
       <c r="G125" s="4"/>
@@ -7911,7 +8349,9 @@
       </c>
       <c r="B126" s="4"/>
       <c r="C126" s="4"/>
-      <c r="D126" s="4"/>
+      <c r="D126" s="4" t="s">
+        <v>17</v>
+      </c>
       <c r="E126" s="4"/>
       <c r="F126" s="4"/>
       <c r="G126" s="4"/>
@@ -7927,7 +8367,9 @@
       </c>
       <c r="B127" s="4"/>
       <c r="C127" s="4"/>
-      <c r="D127" s="4"/>
+      <c r="D127" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="E127" s="4"/>
       <c r="F127" s="4"/>
       <c r="G127" s="4"/>
@@ -7943,7 +8385,9 @@
       </c>
       <c r="B128" s="4"/>
       <c r="C128" s="4"/>
-      <c r="D128" s="4"/>
+      <c r="D128" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="E128" s="4"/>
       <c r="F128" s="4"/>
       <c r="G128" s="4"/>
@@ -7959,7 +8403,9 @@
       </c>
       <c r="B129" s="4"/>
       <c r="C129" s="4"/>
-      <c r="D129" s="4"/>
+      <c r="D129" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="E129" s="4"/>
       <c r="F129" s="4"/>
       <c r="G129" s="4"/>
@@ -7975,7 +8421,9 @@
       </c>
       <c r="B130" s="4"/>
       <c r="C130" s="4"/>
-      <c r="D130" s="4"/>
+      <c r="D130" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="E130" s="4"/>
       <c r="F130" s="4"/>
       <c r="G130" s="4"/>
@@ -7991,7 +8439,9 @@
       </c>
       <c r="B131" s="4"/>
       <c r="C131" s="4"/>
-      <c r="D131" s="4"/>
+      <c r="D131" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="E131" s="4"/>
       <c r="F131" s="4"/>
       <c r="G131" s="4"/>
@@ -8007,7 +8457,9 @@
       </c>
       <c r="B132" s="4"/>
       <c r="C132" s="4"/>
-      <c r="D132" s="4"/>
+      <c r="D132" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="E132" s="4"/>
       <c r="F132" s="4"/>
       <c r="G132" s="4"/>
@@ -8023,7 +8475,9 @@
       </c>
       <c r="B133" s="4"/>
       <c r="C133" s="4"/>
-      <c r="D133" s="4"/>
+      <c r="D133" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="E133" s="4"/>
       <c r="F133" s="4"/>
       <c r="G133" s="4"/>
@@ -8039,7 +8493,9 @@
       </c>
       <c r="B134" s="4"/>
       <c r="C134" s="4"/>
-      <c r="D134" s="4"/>
+      <c r="D134" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="E134" s="4"/>
       <c r="F134" s="4"/>
       <c r="G134" s="4"/>
@@ -8055,7 +8511,9 @@
       </c>
       <c r="B135" s="4"/>
       <c r="C135" s="4"/>
-      <c r="D135" s="4"/>
+      <c r="D135" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="E135" s="4"/>
       <c r="F135" s="4"/>
       <c r="G135" s="4"/>
@@ -8071,7 +8529,9 @@
       </c>
       <c r="B136" s="4"/>
       <c r="C136" s="4"/>
-      <c r="D136" s="4"/>
+      <c r="D136" s="4" t="s">
+        <v>17</v>
+      </c>
       <c r="E136" s="4"/>
       <c r="F136" s="4"/>
       <c r="G136" s="4"/>
@@ -8087,7 +8547,9 @@
       </c>
       <c r="B137" s="4"/>
       <c r="C137" s="4"/>
-      <c r="D137" s="4"/>
+      <c r="D137" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="E137" s="4"/>
       <c r="F137" s="4"/>
       <c r="G137" s="4"/>
@@ -8103,7 +8565,9 @@
       </c>
       <c r="B138" s="4"/>
       <c r="C138" s="4"/>
-      <c r="D138" s="4"/>
+      <c r="D138" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="E138" s="4"/>
       <c r="F138" s="4"/>
       <c r="G138" s="4"/>
@@ -8119,7 +8583,9 @@
       </c>
       <c r="B139" s="4"/>
       <c r="C139" s="4"/>
-      <c r="D139" s="4"/>
+      <c r="D139" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="E139" s="4"/>
       <c r="F139" s="4"/>
       <c r="G139" s="4"/>
@@ -8135,7 +8601,9 @@
       </c>
       <c r="B140" s="4"/>
       <c r="C140" s="4"/>
-      <c r="D140" s="4"/>
+      <c r="D140" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="E140" s="4"/>
       <c r="F140" s="4"/>
       <c r="G140" s="4"/>
@@ -8151,7 +8619,9 @@
       </c>
       <c r="B141" s="4"/>
       <c r="C141" s="4"/>
-      <c r="D141" s="4"/>
+      <c r="D141" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="E141" s="4"/>
       <c r="F141" s="4"/>
       <c r="G141" s="4"/>
@@ -8167,7 +8637,9 @@
       </c>
       <c r="B142" s="4"/>
       <c r="C142" s="4"/>
-      <c r="D142" s="4"/>
+      <c r="D142" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="E142" s="4"/>
       <c r="F142" s="4"/>
       <c r="G142" s="4"/>
@@ -8183,7 +8655,9 @@
       </c>
       <c r="B143" s="4"/>
       <c r="C143" s="4"/>
-      <c r="D143" s="4"/>
+      <c r="D143" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="E143" s="4"/>
       <c r="F143" s="4"/>
       <c r="G143" s="4"/>
@@ -8199,7 +8673,9 @@
       </c>
       <c r="B144" s="4"/>
       <c r="C144" s="4"/>
-      <c r="D144" s="4"/>
+      <c r="D144" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="E144" s="4"/>
       <c r="F144" s="4"/>
       <c r="G144" s="4"/>
@@ -8215,7 +8691,9 @@
       </c>
       <c r="B145" s="4"/>
       <c r="C145" s="4"/>
-      <c r="D145" s="4"/>
+      <c r="D145" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="E145" s="4"/>
       <c r="F145" s="4"/>
       <c r="G145" s="4"/>
@@ -8231,7 +8709,9 @@
       </c>
       <c r="B146" s="4"/>
       <c r="C146" s="4"/>
-      <c r="D146" s="4"/>
+      <c r="D146" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="E146" s="4"/>
       <c r="F146" s="4"/>
       <c r="G146" s="4"/>
@@ -8247,7 +8727,9 @@
       </c>
       <c r="B147" s="4"/>
       <c r="C147" s="4"/>
-      <c r="D147" s="4"/>
+      <c r="D147" s="4" t="s">
+        <v>17</v>
+      </c>
       <c r="E147" s="4"/>
       <c r="F147" s="4"/>
       <c r="G147" s="4"/>
@@ -8263,7 +8745,9 @@
       </c>
       <c r="B148" s="4"/>
       <c r="C148" s="4"/>
-      <c r="D148" s="4"/>
+      <c r="D148" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="E148" s="4"/>
       <c r="F148" s="4"/>
       <c r="G148" s="4"/>
@@ -8279,7 +8763,9 @@
       </c>
       <c r="B149" s="4"/>
       <c r="C149" s="4"/>
-      <c r="D149" s="4"/>
+      <c r="D149" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="E149" s="4"/>
       <c r="F149" s="4"/>
       <c r="G149" s="4"/>
@@ -8295,7 +8781,9 @@
       </c>
       <c r="B150" s="4"/>
       <c r="C150" s="4"/>
-      <c r="D150" s="4"/>
+      <c r="D150" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="E150" s="4"/>
       <c r="F150" s="4"/>
       <c r="G150" s="4"/>
@@ -8311,7 +8799,9 @@
       </c>
       <c r="B151" s="4"/>
       <c r="C151" s="4"/>
-      <c r="D151" s="4"/>
+      <c r="D151" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="E151" s="4"/>
       <c r="F151" s="4"/>
       <c r="G151" s="4"/>
@@ -8327,7 +8817,9 @@
       </c>
       <c r="B152" s="4"/>
       <c r="C152" s="4"/>
-      <c r="D152" s="4"/>
+      <c r="D152" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="E152" s="4"/>
       <c r="F152" s="4"/>
       <c r="G152" s="4"/>
@@ -8343,7 +8835,9 @@
       </c>
       <c r="B153" s="4"/>
       <c r="C153" s="4"/>
-      <c r="D153" s="4"/>
+      <c r="D153" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="E153" s="4"/>
       <c r="F153" s="4"/>
       <c r="G153" s="4"/>
@@ -8359,7 +8853,9 @@
       </c>
       <c r="B154" s="4"/>
       <c r="C154" s="4"/>
-      <c r="D154" s="4"/>
+      <c r="D154" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="E154" s="4"/>
       <c r="F154" s="4"/>
       <c r="G154" s="4"/>
@@ -8375,7 +8871,9 @@
       </c>
       <c r="B155" s="4"/>
       <c r="C155" s="4"/>
-      <c r="D155" s="4"/>
+      <c r="D155" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="E155" s="4"/>
       <c r="F155" s="4"/>
       <c r="G155" s="4"/>
@@ -8391,7 +8889,9 @@
       </c>
       <c r="B156" s="4"/>
       <c r="C156" s="4"/>
-      <c r="D156" s="4"/>
+      <c r="D156" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="E156" s="4"/>
       <c r="F156" s="4"/>
       <c r="G156" s="4"/>
@@ -8407,7 +8907,9 @@
       </c>
       <c r="B157" s="4"/>
       <c r="C157" s="4"/>
-      <c r="D157" s="4"/>
+      <c r="D157" s="4" t="s">
+        <v>17</v>
+      </c>
       <c r="E157" s="4"/>
       <c r="F157" s="4"/>
       <c r="G157" s="4"/>
@@ -8423,7 +8925,9 @@
       </c>
       <c r="B158" s="4"/>
       <c r="C158" s="4"/>
-      <c r="D158" s="4"/>
+      <c r="D158" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="E158" s="4"/>
       <c r="F158" s="4"/>
       <c r="G158" s="4"/>
@@ -8439,7 +8943,9 @@
       </c>
       <c r="B159" s="4"/>
       <c r="C159" s="4"/>
-      <c r="D159" s="4"/>
+      <c r="D159" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="E159" s="4"/>
       <c r="F159" s="4"/>
       <c r="G159" s="4"/>
@@ -8455,7 +8961,9 @@
       </c>
       <c r="B160" s="4"/>
       <c r="C160" s="4"/>
-      <c r="D160" s="4"/>
+      <c r="D160" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="E160" s="4"/>
       <c r="F160" s="4"/>
       <c r="G160" s="4"/>
@@ -8471,7 +8979,9 @@
       </c>
       <c r="B161" s="4"/>
       <c r="C161" s="4"/>
-      <c r="D161" s="4"/>
+      <c r="D161" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="E161" s="4"/>
       <c r="F161" s="4"/>
       <c r="G161" s="4"/>
@@ -8487,7 +8997,9 @@
       </c>
       <c r="B162" s="4"/>
       <c r="C162" s="4"/>
-      <c r="D162" s="4"/>
+      <c r="D162" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="E162" s="4"/>
       <c r="F162" s="4"/>
       <c r="G162" s="4"/>
@@ -8503,7 +9015,9 @@
       </c>
       <c r="B163" s="4"/>
       <c r="C163" s="4"/>
-      <c r="D163" s="4"/>
+      <c r="D163" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="E163" s="4"/>
       <c r="F163" s="4"/>
       <c r="G163" s="4"/>
@@ -8519,7 +9033,9 @@
       </c>
       <c r="B164" s="4"/>
       <c r="C164" s="4"/>
-      <c r="D164" s="4"/>
+      <c r="D164" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="E164" s="4"/>
       <c r="F164" s="4"/>
       <c r="G164" s="4"/>
@@ -8535,7 +9051,9 @@
       </c>
       <c r="B165" s="4"/>
       <c r="C165" s="4"/>
-      <c r="D165" s="4"/>
+      <c r="D165" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="E165" s="4"/>
       <c r="F165" s="4"/>
       <c r="G165" s="4"/>
@@ -8551,7 +9069,9 @@
       </c>
       <c r="B166" s="4"/>
       <c r="C166" s="4"/>
-      <c r="D166" s="4"/>
+      <c r="D166" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="E166" s="4"/>
       <c r="F166" s="4"/>
       <c r="G166" s="4"/>
@@ -8567,7 +9087,9 @@
       </c>
       <c r="B167" s="4"/>
       <c r="C167" s="4"/>
-      <c r="D167" s="4"/>
+      <c r="D167" s="4" t="s">
+        <v>17</v>
+      </c>
       <c r="E167" s="4"/>
       <c r="F167" s="4"/>
       <c r="G167" s="4"/>
@@ -8583,7 +9105,9 @@
       </c>
       <c r="B168" s="4"/>
       <c r="C168" s="4"/>
-      <c r="D168" s="4"/>
+      <c r="D168" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="E168" s="4"/>
       <c r="F168" s="4"/>
       <c r="G168" s="4"/>
@@ -8599,7 +9123,9 @@
       </c>
       <c r="B169" s="4"/>
       <c r="C169" s="4"/>
-      <c r="D169" s="4"/>
+      <c r="D169" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="E169" s="4"/>
       <c r="F169" s="4"/>
       <c r="G169" s="4"/>
@@ -8615,7 +9141,9 @@
       </c>
       <c r="B170" s="4"/>
       <c r="C170" s="4"/>
-      <c r="D170" s="4"/>
+      <c r="D170" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="E170" s="4"/>
       <c r="F170" s="4"/>
       <c r="G170" s="4"/>
@@ -8631,7 +9159,9 @@
       </c>
       <c r="B171" s="4"/>
       <c r="C171" s="4"/>
-      <c r="D171" s="4"/>
+      <c r="D171" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="E171" s="4"/>
       <c r="F171" s="4"/>
       <c r="G171" s="4"/>
@@ -8647,7 +9177,9 @@
       </c>
       <c r="B172" s="4"/>
       <c r="C172" s="4"/>
-      <c r="D172" s="4"/>
+      <c r="D172" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="E172" s="4"/>
       <c r="F172" s="4"/>
       <c r="G172" s="4"/>
@@ -8663,7 +9195,9 @@
       </c>
       <c r="B173" s="4"/>
       <c r="C173" s="4"/>
-      <c r="D173" s="4"/>
+      <c r="D173" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="E173" s="4"/>
       <c r="F173" s="4"/>
       <c r="G173" s="4"/>
@@ -8679,7 +9213,9 @@
       </c>
       <c r="B174" s="4"/>
       <c r="C174" s="4"/>
-      <c r="D174" s="4"/>
+      <c r="D174" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="E174" s="4"/>
       <c r="F174" s="4"/>
       <c r="G174" s="4"/>
@@ -8695,7 +9231,9 @@
       </c>
       <c r="B175" s="4"/>
       <c r="C175" s="4"/>
-      <c r="D175" s="4"/>
+      <c r="D175" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="E175" s="4"/>
       <c r="F175" s="4"/>
       <c r="G175" s="4"/>
@@ -8711,7 +9249,9 @@
       </c>
       <c r="B176" s="4"/>
       <c r="C176" s="4"/>
-      <c r="D176" s="4"/>
+      <c r="D176" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="E176" s="4"/>
       <c r="F176" s="4"/>
       <c r="G176" s="4"/>
@@ -8727,7 +9267,9 @@
       </c>
       <c r="B177" s="4"/>
       <c r="C177" s="4"/>
-      <c r="D177" s="4"/>
+      <c r="D177" s="4" t="s">
+        <v>17</v>
+      </c>
       <c r="E177" s="4"/>
       <c r="F177" s="4"/>
       <c r="G177" s="4"/>
@@ -8743,7 +9285,9 @@
       </c>
       <c r="B178" s="4"/>
       <c r="C178" s="4"/>
-      <c r="D178" s="4"/>
+      <c r="D178" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="E178" s="4"/>
       <c r="F178" s="4"/>
       <c r="G178" s="4"/>
@@ -8759,7 +9303,9 @@
       </c>
       <c r="B179" s="4"/>
       <c r="C179" s="4"/>
-      <c r="D179" s="4"/>
+      <c r="D179" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="E179" s="4"/>
       <c r="F179" s="4"/>
       <c r="G179" s="4"/>
@@ -8775,7 +9321,9 @@
       </c>
       <c r="B180" s="4"/>
       <c r="C180" s="4"/>
-      <c r="D180" s="4"/>
+      <c r="D180" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="E180" s="4"/>
       <c r="F180" s="4"/>
       <c r="G180" s="4"/>
@@ -8791,7 +9339,9 @@
       </c>
       <c r="B181" s="4"/>
       <c r="C181" s="4"/>
-      <c r="D181" s="4"/>
+      <c r="D181" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="E181" s="4"/>
       <c r="F181" s="4"/>
       <c r="G181" s="4"/>
@@ -8807,7 +9357,9 @@
       </c>
       <c r="B182" s="4"/>
       <c r="C182" s="4"/>
-      <c r="D182" s="4"/>
+      <c r="D182" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="E182" s="4"/>
       <c r="F182" s="4"/>
       <c r="G182" s="4"/>
@@ -8823,7 +9375,9 @@
       </c>
       <c r="B183" s="4"/>
       <c r="C183" s="4"/>
-      <c r="D183" s="4"/>
+      <c r="D183" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="E183" s="4"/>
       <c r="F183" s="4"/>
       <c r="G183" s="4"/>
@@ -8839,7 +9393,9 @@
       </c>
       <c r="B184" s="4"/>
       <c r="C184" s="4"/>
-      <c r="D184" s="4"/>
+      <c r="D184" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="E184" s="4"/>
       <c r="F184" s="4"/>
       <c r="G184" s="4"/>
@@ -8855,7 +9411,9 @@
       </c>
       <c r="B185" s="4"/>
       <c r="C185" s="4"/>
-      <c r="D185" s="4"/>
+      <c r="D185" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="E185" s="4"/>
       <c r="F185" s="4"/>
       <c r="G185" s="4"/>
@@ -8871,7 +9429,9 @@
       </c>
       <c r="B186" s="4"/>
       <c r="C186" s="4"/>
-      <c r="D186" s="4"/>
+      <c r="D186" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="E186" s="4"/>
       <c r="F186" s="4"/>
       <c r="G186" s="4"/>
@@ -8887,7 +9447,9 @@
       </c>
       <c r="B187" s="4"/>
       <c r="C187" s="4"/>
-      <c r="D187" s="4"/>
+      <c r="D187" s="4" t="s">
+        <v>17</v>
+      </c>
       <c r="E187" s="4"/>
       <c r="F187" s="4"/>
       <c r="G187" s="4"/>
@@ -8903,7 +9465,9 @@
       </c>
       <c r="B188" s="4"/>
       <c r="C188" s="4"/>
-      <c r="D188" s="4"/>
+      <c r="D188" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="E188" s="4"/>
       <c r="F188" s="4"/>
       <c r="G188" s="4"/>
@@ -8919,7 +9483,9 @@
       </c>
       <c r="B189" s="4"/>
       <c r="C189" s="4"/>
-      <c r="D189" s="4"/>
+      <c r="D189" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="E189" s="4"/>
       <c r="F189" s="4"/>
       <c r="G189" s="4"/>
@@ -8935,7 +9501,9 @@
       </c>
       <c r="B190" s="4"/>
       <c r="C190" s="4"/>
-      <c r="D190" s="4"/>
+      <c r="D190" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="E190" s="4"/>
       <c r="F190" s="4"/>
       <c r="G190" s="4"/>
@@ -8951,7 +9519,9 @@
       </c>
       <c r="B191" s="4"/>
       <c r="C191" s="4"/>
-      <c r="D191" s="4"/>
+      <c r="D191" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="E191" s="4"/>
       <c r="F191" s="4"/>
       <c r="G191" s="4"/>
@@ -8967,7 +9537,9 @@
       </c>
       <c r="B192" s="4"/>
       <c r="C192" s="4"/>
-      <c r="D192" s="4"/>
+      <c r="D192" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="E192" s="4"/>
       <c r="F192" s="4"/>
       <c r="G192" s="4"/>
@@ -8983,7 +9555,9 @@
       </c>
       <c r="B193" s="4"/>
       <c r="C193" s="4"/>
-      <c r="D193" s="4"/>
+      <c r="D193" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="E193" s="4"/>
       <c r="F193" s="4"/>
       <c r="G193" s="4"/>
@@ -8999,7 +9573,9 @@
       </c>
       <c r="B194" s="4"/>
       <c r="C194" s="4"/>
-      <c r="D194" s="4"/>
+      <c r="D194" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="E194" s="4"/>
       <c r="F194" s="4"/>
       <c r="G194" s="4"/>
@@ -9015,7 +9591,9 @@
       </c>
       <c r="B195" s="4"/>
       <c r="C195" s="4"/>
-      <c r="D195" s="4"/>
+      <c r="D195" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="E195" s="4"/>
       <c r="F195" s="4"/>
       <c r="G195" s="4"/>
@@ -9031,7 +9609,9 @@
       </c>
       <c r="B196" s="4"/>
       <c r="C196" s="4"/>
-      <c r="D196" s="4"/>
+      <c r="D196" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="E196" s="4"/>
       <c r="F196" s="4"/>
       <c r="G196" s="4"/>
@@ -9047,7 +9627,9 @@
       </c>
       <c r="B197" s="4"/>
       <c r="C197" s="4"/>
-      <c r="D197" s="4"/>
+      <c r="D197" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="E197" s="4"/>
       <c r="F197" s="4"/>
       <c r="G197" s="4"/>
@@ -9063,7 +9645,9 @@
       </c>
       <c r="B198" s="4"/>
       <c r="C198" s="4"/>
-      <c r="D198" s="4"/>
+      <c r="D198" s="4" t="s">
+        <v>17</v>
+      </c>
       <c r="E198" s="4"/>
       <c r="F198" s="4"/>
       <c r="G198" s="4"/>
@@ -9079,7 +9663,9 @@
       </c>
       <c r="B199" s="4"/>
       <c r="C199" s="4"/>
-      <c r="D199" s="4"/>
+      <c r="D199" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="E199" s="4"/>
       <c r="F199" s="4"/>
       <c r="G199" s="4"/>
@@ -9095,7 +9681,9 @@
       </c>
       <c r="B200" s="4"/>
       <c r="C200" s="4"/>
-      <c r="D200" s="4"/>
+      <c r="D200" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="E200" s="4"/>
       <c r="F200" s="4"/>
       <c r="G200" s="4"/>
@@ -9111,7 +9699,9 @@
       </c>
       <c r="B201" s="4"/>
       <c r="C201" s="4"/>
-      <c r="D201" s="4"/>
+      <c r="D201" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="E201" s="4"/>
       <c r="F201" s="4"/>
       <c r="G201" s="4"/>
@@ -9127,7 +9717,9 @@
       </c>
       <c r="B202" s="4"/>
       <c r="C202" s="4"/>
-      <c r="D202" s="4"/>
+      <c r="D202" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="E202" s="4"/>
       <c r="F202" s="4"/>
       <c r="G202" s="4"/>
@@ -9143,7 +9735,9 @@
       </c>
       <c r="B203" s="4"/>
       <c r="C203" s="4"/>
-      <c r="D203" s="4"/>
+      <c r="D203" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="E203" s="4"/>
       <c r="F203" s="4"/>
       <c r="G203" s="4"/>
@@ -9159,7 +9753,9 @@
       </c>
       <c r="B204" s="4"/>
       <c r="C204" s="4"/>
-      <c r="D204" s="4"/>
+      <c r="D204" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="E204" s="4"/>
       <c r="F204" s="4"/>
       <c r="G204" s="4"/>
@@ -9175,7 +9771,9 @@
       </c>
       <c r="B205" s="4"/>
       <c r="C205" s="4"/>
-      <c r="D205" s="4"/>
+      <c r="D205" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="E205" s="4"/>
       <c r="F205" s="4"/>
       <c r="G205" s="4"/>
@@ -9191,7 +9789,9 @@
       </c>
       <c r="B206" s="4"/>
       <c r="C206" s="4"/>
-      <c r="D206" s="4"/>
+      <c r="D206" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="E206" s="4"/>
       <c r="F206" s="4"/>
       <c r="G206" s="4"/>
@@ -9207,7 +9807,9 @@
       </c>
       <c r="B207" s="4"/>
       <c r="C207" s="4"/>
-      <c r="D207" s="4"/>
+      <c r="D207" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="E207" s="4"/>
       <c r="F207" s="4"/>
       <c r="G207" s="4"/>
@@ -9223,7 +9825,9 @@
       </c>
       <c r="B208" s="4"/>
       <c r="C208" s="4"/>
-      <c r="D208" s="4"/>
+      <c r="D208" s="4" t="s">
+        <v>17</v>
+      </c>
       <c r="E208" s="4"/>
       <c r="F208" s="4"/>
       <c r="G208" s="4"/>
@@ -9239,7 +9843,9 @@
       </c>
       <c r="B209" s="4"/>
       <c r="C209" s="4"/>
-      <c r="D209" s="4"/>
+      <c r="D209" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="E209" s="4"/>
       <c r="F209" s="4"/>
       <c r="G209" s="4"/>
@@ -9255,7 +9861,9 @@
       </c>
       <c r="B210" s="4"/>
       <c r="C210" s="4"/>
-      <c r="D210" s="4"/>
+      <c r="D210" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="E210" s="4"/>
       <c r="F210" s="4"/>
       <c r="G210" s="4"/>
@@ -9271,7 +9879,9 @@
       </c>
       <c r="B211" s="4"/>
       <c r="C211" s="4"/>
-      <c r="D211" s="4"/>
+      <c r="D211" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="E211" s="4"/>
       <c r="F211" s="4"/>
       <c r="G211" s="4"/>
@@ -9287,7 +9897,9 @@
       </c>
       <c r="B212" s="4"/>
       <c r="C212" s="4"/>
-      <c r="D212" s="4"/>
+      <c r="D212" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="E212" s="4"/>
       <c r="F212" s="4"/>
       <c r="G212" s="4"/>
@@ -9303,7 +9915,9 @@
       </c>
       <c r="B213" s="4"/>
       <c r="C213" s="4"/>
-      <c r="D213" s="4"/>
+      <c r="D213" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="E213" s="4"/>
       <c r="F213" s="4"/>
       <c r="G213" s="4"/>
@@ -9319,7 +9933,9 @@
       </c>
       <c r="B214" s="4"/>
       <c r="C214" s="4"/>
-      <c r="D214" s="4"/>
+      <c r="D214" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="E214" s="4"/>
       <c r="F214" s="4"/>
       <c r="G214" s="4"/>
@@ -9335,7 +9951,9 @@
       </c>
       <c r="B215" s="4"/>
       <c r="C215" s="4"/>
-      <c r="D215" s="4"/>
+      <c r="D215" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="E215" s="4"/>
       <c r="F215" s="4"/>
       <c r="G215" s="4"/>
@@ -9351,7 +9969,9 @@
       </c>
       <c r="B216" s="4"/>
       <c r="C216" s="4"/>
-      <c r="D216" s="4"/>
+      <c r="D216" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="E216" s="4"/>
       <c r="F216" s="4"/>
       <c r="G216" s="4"/>
@@ -9367,7 +9987,9 @@
       </c>
       <c r="B217" s="4"/>
       <c r="C217" s="4"/>
-      <c r="D217" s="4"/>
+      <c r="D217" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="E217" s="4"/>
       <c r="F217" s="4"/>
       <c r="G217" s="4"/>
@@ -9383,7 +10005,9 @@
       </c>
       <c r="B218" s="4"/>
       <c r="C218" s="4"/>
-      <c r="D218" s="4"/>
+      <c r="D218" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="E218" s="4"/>
       <c r="F218" s="4"/>
       <c r="G218" s="4"/>
@@ -9399,7 +10023,9 @@
       </c>
       <c r="B219" s="4"/>
       <c r="C219" s="4"/>
-      <c r="D219" s="4"/>
+      <c r="D219" s="4" t="s">
+        <v>17</v>
+      </c>
       <c r="E219" s="4"/>
       <c r="F219" s="4"/>
       <c r="G219" s="4"/>
@@ -9415,7 +10041,9 @@
       </c>
       <c r="B220" s="4"/>
       <c r="C220" s="4"/>
-      <c r="D220" s="4"/>
+      <c r="D220" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="E220" s="4"/>
       <c r="F220" s="4"/>
       <c r="G220" s="4"/>
@@ -9431,7 +10059,9 @@
       </c>
       <c r="B221" s="4"/>
       <c r="C221" s="4"/>
-      <c r="D221" s="4"/>
+      <c r="D221" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="E221" s="4"/>
       <c r="F221" s="4"/>
       <c r="G221" s="4"/>
@@ -9447,7 +10077,9 @@
       </c>
       <c r="B222" s="4"/>
       <c r="C222" s="4"/>
-      <c r="D222" s="4"/>
+      <c r="D222" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="E222" s="4"/>
       <c r="F222" s="4"/>
       <c r="G222" s="4"/>
@@ -9463,7 +10095,9 @@
       </c>
       <c r="B223" s="4"/>
       <c r="C223" s="4"/>
-      <c r="D223" s="4"/>
+      <c r="D223" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="E223" s="4"/>
       <c r="F223" s="4"/>
       <c r="G223" s="4"/>
@@ -9479,7 +10113,9 @@
       </c>
       <c r="B224" s="4"/>
       <c r="C224" s="4"/>
-      <c r="D224" s="4"/>
+      <c r="D224" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="E224" s="4"/>
       <c r="F224" s="4"/>
       <c r="G224" s="4"/>
@@ -9495,7 +10131,9 @@
       </c>
       <c r="B225" s="4"/>
       <c r="C225" s="4"/>
-      <c r="D225" s="4"/>
+      <c r="D225" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="E225" s="4"/>
       <c r="F225" s="4"/>
       <c r="G225" s="4"/>
@@ -9511,7 +10149,9 @@
       </c>
       <c r="B226" s="4"/>
       <c r="C226" s="4"/>
-      <c r="D226" s="4"/>
+      <c r="D226" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="E226" s="4"/>
       <c r="F226" s="4"/>
       <c r="G226" s="4"/>
@@ -9527,7 +10167,9 @@
       </c>
       <c r="B227" s="4"/>
       <c r="C227" s="4"/>
-      <c r="D227" s="4"/>
+      <c r="D227" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="E227" s="4"/>
       <c r="F227" s="4"/>
       <c r="G227" s="4"/>
@@ -9543,7 +10185,9 @@
       </c>
       <c r="B228" s="4"/>
       <c r="C228" s="4"/>
-      <c r="D228" s="4"/>
+      <c r="D228" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="E228" s="4"/>
       <c r="F228" s="4"/>
       <c r="G228" s="4"/>
@@ -9559,7 +10203,9 @@
       </c>
       <c r="B229" s="4"/>
       <c r="C229" s="4"/>
-      <c r="D229" s="4"/>
+      <c r="D229" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="E229" s="4"/>
       <c r="F229" s="4"/>
       <c r="G229" s="4"/>
@@ -9575,7 +10221,9 @@
       </c>
       <c r="B230" s="4"/>
       <c r="C230" s="4"/>
-      <c r="D230" s="4"/>
+      <c r="D230" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="E230" s="4"/>
       <c r="F230" s="4"/>
       <c r="G230" s="4"/>
@@ -9591,7 +10239,9 @@
       </c>
       <c r="B231" s="4"/>
       <c r="C231" s="4"/>
-      <c r="D231" s="4"/>
+      <c r="D231" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="E231" s="4"/>
       <c r="F231" s="4"/>
       <c r="G231" s="4"/>
@@ -9607,7 +10257,9 @@
       </c>
       <c r="B232" s="4"/>
       <c r="C232" s="4"/>
-      <c r="D232" s="4"/>
+      <c r="D232" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="E232" s="4"/>
       <c r="F232" s="4"/>
       <c r="G232" s="4"/>
@@ -9623,7 +10275,9 @@
       </c>
       <c r="B233" s="4"/>
       <c r="C233" s="4"/>
-      <c r="D233" s="4"/>
+      <c r="D233" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="E233" s="4"/>
       <c r="F233" s="4"/>
       <c r="G233" s="4"/>
@@ -9639,7 +10293,9 @@
       </c>
       <c r="B234" s="4"/>
       <c r="C234" s="4"/>
-      <c r="D234" s="4"/>
+      <c r="D234" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="E234" s="4"/>
       <c r="F234" s="4"/>
       <c r="G234" s="4"/>
@@ -9655,7 +10311,9 @@
       </c>
       <c r="B235" s="4"/>
       <c r="C235" s="4"/>
-      <c r="D235" s="4"/>
+      <c r="D235" s="4" t="s">
+        <v>17</v>
+      </c>
       <c r="E235" s="4"/>
       <c r="F235" s="4"/>
       <c r="G235" s="4"/>
@@ -9671,7 +10329,9 @@
       </c>
       <c r="B236" s="4"/>
       <c r="C236" s="4"/>
-      <c r="D236" s="4"/>
+      <c r="D236" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="E236" s="4"/>
       <c r="F236" s="4"/>
       <c r="G236" s="4"/>
@@ -9687,7 +10347,9 @@
       </c>
       <c r="B237" s="4"/>
       <c r="C237" s="4"/>
-      <c r="D237" s="4"/>
+      <c r="D237" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="E237" s="4"/>
       <c r="F237" s="4"/>
       <c r="G237" s="4"/>
@@ -9703,7 +10365,9 @@
       </c>
       <c r="B238" s="4"/>
       <c r="C238" s="4"/>
-      <c r="D238" s="4"/>
+      <c r="D238" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="E238" s="4"/>
       <c r="F238" s="4"/>
       <c r="G238" s="4"/>
@@ -9719,7 +10383,9 @@
       </c>
       <c r="B239" s="4"/>
       <c r="C239" s="4"/>
-      <c r="D239" s="4"/>
+      <c r="D239" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="E239" s="4"/>
       <c r="F239" s="4"/>
       <c r="G239" s="4"/>
@@ -9735,7 +10401,9 @@
       </c>
       <c r="B240" s="4"/>
       <c r="C240" s="4"/>
-      <c r="D240" s="4"/>
+      <c r="D240" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="E240" s="4"/>
       <c r="F240" s="4"/>
       <c r="G240" s="4"/>
@@ -9751,7 +10419,9 @@
       </c>
       <c r="B241" s="4"/>
       <c r="C241" s="4"/>
-      <c r="D241" s="4"/>
+      <c r="D241" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="E241" s="4"/>
       <c r="F241" s="4"/>
       <c r="G241" s="4"/>
@@ -9767,7 +10437,9 @@
       </c>
       <c r="B242" s="4"/>
       <c r="C242" s="4"/>
-      <c r="D242" s="4"/>
+      <c r="D242" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="E242" s="4"/>
       <c r="F242" s="4"/>
       <c r="G242" s="4"/>
@@ -9783,7 +10455,9 @@
       </c>
       <c r="B243" s="4"/>
       <c r="C243" s="4"/>
-      <c r="D243" s="4"/>
+      <c r="D243" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="E243" s="4"/>
       <c r="F243" s="4"/>
       <c r="G243" s="4"/>
@@ -9799,7 +10473,9 @@
       </c>
       <c r="B244" s="4"/>
       <c r="C244" s="4"/>
-      <c r="D244" s="4"/>
+      <c r="D244" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="E244" s="4"/>
       <c r="F244" s="4"/>
       <c r="G244" s="4"/>
@@ -9815,7 +10491,9 @@
       </c>
       <c r="B245" s="4"/>
       <c r="C245" s="4"/>
-      <c r="D245" s="4"/>
+      <c r="D245" s="4" t="s">
+        <v>17</v>
+      </c>
       <c r="E245" s="4"/>
       <c r="F245" s="4"/>
       <c r="G245" s="4"/>
@@ -9831,7 +10509,9 @@
       </c>
       <c r="B246" s="4"/>
       <c r="C246" s="4"/>
-      <c r="D246" s="4"/>
+      <c r="D246" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="E246" s="4"/>
       <c r="F246" s="4"/>
       <c r="G246" s="4"/>
@@ -9847,7 +10527,9 @@
       </c>
       <c r="B247" s="4"/>
       <c r="C247" s="4"/>
-      <c r="D247" s="4"/>
+      <c r="D247" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="E247" s="4"/>
       <c r="F247" s="4"/>
       <c r="G247" s="4"/>
@@ -9863,7 +10545,9 @@
       </c>
       <c r="B248" s="4"/>
       <c r="C248" s="4"/>
-      <c r="D248" s="4"/>
+      <c r="D248" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="E248" s="4"/>
       <c r="F248" s="4"/>
       <c r="G248" s="4"/>
@@ -9879,7 +10563,9 @@
       </c>
       <c r="B249" s="4"/>
       <c r="C249" s="4"/>
-      <c r="D249" s="4"/>
+      <c r="D249" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="E249" s="4"/>
       <c r="F249" s="4"/>
       <c r="G249" s="4"/>
@@ -9895,7 +10581,9 @@
       </c>
       <c r="B250" s="4"/>
       <c r="C250" s="4"/>
-      <c r="D250" s="4"/>
+      <c r="D250" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="E250" s="4"/>
       <c r="F250" s="4"/>
       <c r="G250" s="4"/>
@@ -9911,7 +10599,9 @@
       </c>
       <c r="B251" s="4"/>
       <c r="C251" s="4"/>
-      <c r="D251" s="4"/>
+      <c r="D251" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="E251" s="4"/>
       <c r="F251" s="4"/>
       <c r="G251" s="4"/>
@@ -9927,7 +10617,9 @@
       </c>
       <c r="B252" s="4"/>
       <c r="C252" s="4"/>
-      <c r="D252" s="4"/>
+      <c r="D252" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="E252" s="4"/>
       <c r="F252" s="4"/>
       <c r="G252" s="4"/>
@@ -9943,7 +10635,9 @@
       </c>
       <c r="B253" s="4"/>
       <c r="C253" s="4"/>
-      <c r="D253" s="4"/>
+      <c r="D253" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="E253" s="4"/>
       <c r="F253" s="4"/>
       <c r="G253" s="4"/>
@@ -9959,7 +10653,9 @@
       </c>
       <c r="B254" s="4"/>
       <c r="C254" s="4"/>
-      <c r="D254" s="4"/>
+      <c r="D254" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="E254" s="4"/>
       <c r="F254" s="4"/>
       <c r="G254" s="4"/>
@@ -9975,7 +10671,9 @@
       </c>
       <c r="B255" s="4"/>
       <c r="C255" s="4"/>
-      <c r="D255" s="4"/>
+      <c r="D255" s="4" t="s">
+        <v>17</v>
+      </c>
       <c r="E255" s="4"/>
       <c r="F255" s="4"/>
       <c r="G255" s="4"/>
@@ -9991,7 +10689,9 @@
       </c>
       <c r="B256" s="4"/>
       <c r="C256" s="4"/>
-      <c r="D256" s="4"/>
+      <c r="D256" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="E256" s="4"/>
       <c r="F256" s="4"/>
       <c r="G256" s="4"/>
@@ -10007,7 +10707,9 @@
       </c>
       <c r="B257" s="4"/>
       <c r="C257" s="4"/>
-      <c r="D257" s="4"/>
+      <c r="D257" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="E257" s="4"/>
       <c r="F257" s="4"/>
       <c r="G257" s="4"/>
@@ -10023,7 +10725,9 @@
       </c>
       <c r="B258" s="4"/>
       <c r="C258" s="4"/>
-      <c r="D258" s="4"/>
+      <c r="D258" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="E258" s="4"/>
       <c r="F258" s="4"/>
       <c r="G258" s="4"/>
@@ -10039,7 +10743,9 @@
       </c>
       <c r="B259" s="4"/>
       <c r="C259" s="4"/>
-      <c r="D259" s="4"/>
+      <c r="D259" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="E259" s="4"/>
       <c r="F259" s="4"/>
       <c r="G259" s="4"/>
@@ -10055,7 +10761,9 @@
       </c>
       <c r="B260" s="4"/>
       <c r="C260" s="4"/>
-      <c r="D260" s="4"/>
+      <c r="D260" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="E260" s="4"/>
       <c r="F260" s="4"/>
       <c r="G260" s="4"/>
@@ -10071,7 +10779,9 @@
       </c>
       <c r="B261" s="4"/>
       <c r="C261" s="4"/>
-      <c r="D261" s="4"/>
+      <c r="D261" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="E261" s="4"/>
       <c r="F261" s="4"/>
       <c r="G261" s="4"/>
@@ -10087,7 +10797,9 @@
       </c>
       <c r="B262" s="4"/>
       <c r="C262" s="4"/>
-      <c r="D262" s="4"/>
+      <c r="D262" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="E262" s="4"/>
       <c r="F262" s="4"/>
       <c r="G262" s="4"/>
@@ -10103,7 +10815,9 @@
       </c>
       <c r="B263" s="4"/>
       <c r="C263" s="4"/>
-      <c r="D263" s="4"/>
+      <c r="D263" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="E263" s="4"/>
       <c r="F263" s="4"/>
       <c r="G263" s="4"/>
@@ -10119,7 +10833,9 @@
       </c>
       <c r="B264" s="4"/>
       <c r="C264" s="4"/>
-      <c r="D264" s="4"/>
+      <c r="D264" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="E264" s="4"/>
       <c r="F264" s="4"/>
       <c r="G264" s="4"/>
@@ -10135,7 +10851,9 @@
       </c>
       <c r="B265" s="4"/>
       <c r="C265" s="4"/>
-      <c r="D265" s="4"/>
+      <c r="D265" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="E265" s="4"/>
       <c r="F265" s="4"/>
       <c r="G265" s="4"/>
@@ -10151,7 +10869,9 @@
       </c>
       <c r="B266" s="4"/>
       <c r="C266" s="4"/>
-      <c r="D266" s="4"/>
+      <c r="D266" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="E266" s="4"/>
       <c r="F266" s="4"/>
       <c r="G266" s="4"/>
@@ -10167,7 +10887,9 @@
       </c>
       <c r="B267" s="4"/>
       <c r="C267" s="4"/>
-      <c r="D267" s="4"/>
+      <c r="D267" s="4" t="s">
+        <v>17</v>
+      </c>
       <c r="E267" s="4"/>
       <c r="F267" s="4"/>
       <c r="G267" s="4"/>
@@ -10183,7 +10905,9 @@
       </c>
       <c r="B268" s="4"/>
       <c r="C268" s="4"/>
-      <c r="D268" s="4"/>
+      <c r="D268" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="E268" s="4"/>
       <c r="F268" s="4"/>
       <c r="G268" s="4"/>
@@ -10199,7 +10923,9 @@
       </c>
       <c r="B269" s="4"/>
       <c r="C269" s="4"/>
-      <c r="D269" s="4"/>
+      <c r="D269" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="E269" s="4"/>
       <c r="F269" s="4"/>
       <c r="G269" s="4"/>
@@ -10215,7 +10941,9 @@
       </c>
       <c r="B270" s="4"/>
       <c r="C270" s="4"/>
-      <c r="D270" s="4"/>
+      <c r="D270" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="E270" s="4"/>
       <c r="F270" s="4"/>
       <c r="G270" s="4"/>
@@ -10231,7 +10959,9 @@
       </c>
       <c r="B271" s="4"/>
       <c r="C271" s="4"/>
-      <c r="D271" s="4"/>
+      <c r="D271" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="E271" s="4"/>
       <c r="F271" s="4"/>
       <c r="G271" s="4"/>
@@ -10247,7 +10977,9 @@
       </c>
       <c r="B272" s="4"/>
       <c r="C272" s="4"/>
-      <c r="D272" s="4"/>
+      <c r="D272" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="E272" s="4"/>
       <c r="F272" s="4"/>
       <c r="G272" s="4"/>
@@ -10263,7 +10995,9 @@
       </c>
       <c r="B273" s="4"/>
       <c r="C273" s="4"/>
-      <c r="D273" s="4"/>
+      <c r="D273" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="E273" s="4"/>
       <c r="F273" s="4"/>
       <c r="G273" s="4"/>
@@ -10279,7 +11013,9 @@
       </c>
       <c r="B274" s="4"/>
       <c r="C274" s="4"/>
-      <c r="D274" s="4"/>
+      <c r="D274" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="E274" s="4"/>
       <c r="F274" s="4"/>
       <c r="G274" s="4"/>
@@ -10295,7 +11031,9 @@
       </c>
       <c r="B275" s="4"/>
       <c r="C275" s="4"/>
-      <c r="D275" s="4"/>
+      <c r="D275" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="E275" s="4"/>
       <c r="F275" s="4"/>
       <c r="G275" s="4"/>
@@ -10311,7 +11049,9 @@
       </c>
       <c r="B276" s="4"/>
       <c r="C276" s="4"/>
-      <c r="D276" s="4"/>
+      <c r="D276" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="E276" s="4"/>
       <c r="F276" s="4"/>
       <c r="G276" s="4"/>
@@ -10327,7 +11067,9 @@
       </c>
       <c r="B277" s="4"/>
       <c r="C277" s="4"/>
-      <c r="D277" s="4"/>
+      <c r="D277" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="E277" s="4"/>
       <c r="F277" s="4"/>
       <c r="G277" s="4"/>
@@ -10343,7 +11085,9 @@
       </c>
       <c r="B278" s="4"/>
       <c r="C278" s="4"/>
-      <c r="D278" s="4"/>
+      <c r="D278" s="4" t="s">
+        <v>17</v>
+      </c>
       <c r="E278" s="4"/>
       <c r="F278" s="4"/>
       <c r="G278" s="4"/>
@@ -10359,7 +11103,9 @@
       </c>
       <c r="B279" s="4"/>
       <c r="C279" s="4"/>
-      <c r="D279" s="4"/>
+      <c r="D279" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="E279" s="4"/>
       <c r="F279" s="4"/>
       <c r="G279" s="4"/>
@@ -10375,7 +11121,9 @@
       </c>
       <c r="B280" s="4"/>
       <c r="C280" s="4"/>
-      <c r="D280" s="4"/>
+      <c r="D280" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="E280" s="4"/>
       <c r="F280" s="4"/>
       <c r="G280" s="4"/>
@@ -10391,7 +11139,9 @@
       </c>
       <c r="B281" s="4"/>
       <c r="C281" s="4"/>
-      <c r="D281" s="4"/>
+      <c r="D281" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="E281" s="4"/>
       <c r="F281" s="4"/>
       <c r="G281" s="4"/>
@@ -10407,7 +11157,9 @@
       </c>
       <c r="B282" s="4"/>
       <c r="C282" s="4"/>
-      <c r="D282" s="4"/>
+      <c r="D282" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="E282" s="4"/>
       <c r="F282" s="4"/>
       <c r="G282" s="4"/>
@@ -10423,7 +11175,9 @@
       </c>
       <c r="B283" s="4"/>
       <c r="C283" s="4"/>
-      <c r="D283" s="4"/>
+      <c r="D283" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="E283" s="4"/>
       <c r="F283" s="4"/>
       <c r="G283" s="4"/>
@@ -10439,7 +11193,9 @@
       </c>
       <c r="B284" s="4"/>
       <c r="C284" s="4"/>
-      <c r="D284" s="4"/>
+      <c r="D284" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="E284" s="4"/>
       <c r="F284" s="4"/>
       <c r="G284" s="4"/>
@@ -10455,7 +11211,9 @@
       </c>
       <c r="B285" s="4"/>
       <c r="C285" s="4"/>
-      <c r="D285" s="4"/>
+      <c r="D285" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="E285" s="4"/>
       <c r="F285" s="4"/>
       <c r="G285" s="4"/>
@@ -10471,7 +11229,9 @@
       </c>
       <c r="B286" s="4"/>
       <c r="C286" s="4"/>
-      <c r="D286" s="4"/>
+      <c r="D286" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="E286" s="4"/>
       <c r="F286" s="4"/>
       <c r="G286" s="4"/>
@@ -10487,7 +11247,9 @@
       </c>
       <c r="B287" s="4"/>
       <c r="C287" s="4"/>
-      <c r="D287" s="4"/>
+      <c r="D287" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="E287" s="4"/>
       <c r="F287" s="4"/>
       <c r="G287" s="4"/>
@@ -10503,7 +11265,9 @@
       </c>
       <c r="B288" s="4"/>
       <c r="C288" s="4"/>
-      <c r="D288" s="4"/>
+      <c r="D288" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="E288" s="4"/>
       <c r="F288" s="4"/>
       <c r="G288" s="4"/>
@@ -10519,7 +11283,9 @@
       </c>
       <c r="B289" s="4"/>
       <c r="C289" s="4"/>
-      <c r="D289" s="4"/>
+      <c r="D289" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="E289" s="4"/>
       <c r="F289" s="4"/>
       <c r="G289" s="4"/>
@@ -10535,7 +11301,9 @@
       </c>
       <c r="B290" s="4"/>
       <c r="C290" s="4"/>
-      <c r="D290" s="4"/>
+      <c r="D290" s="4" t="s">
+        <v>17</v>
+      </c>
       <c r="E290" s="4"/>
       <c r="F290" s="4"/>
       <c r="G290" s="4"/>
@@ -10551,7 +11319,9 @@
       </c>
       <c r="B291" s="4"/>
       <c r="C291" s="4"/>
-      <c r="D291" s="4"/>
+      <c r="D291" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="E291" s="4"/>
       <c r="F291" s="4"/>
       <c r="G291" s="4"/>
@@ -10567,7 +11337,9 @@
       </c>
       <c r="B292" s="4"/>
       <c r="C292" s="4"/>
-      <c r="D292" s="4"/>
+      <c r="D292" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="E292" s="4"/>
       <c r="F292" s="4"/>
       <c r="G292" s="4"/>
@@ -10583,7 +11355,9 @@
       </c>
       <c r="B293" s="4"/>
       <c r="C293" s="4"/>
-      <c r="D293" s="4"/>
+      <c r="D293" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="E293" s="4"/>
       <c r="F293" s="4"/>
       <c r="G293" s="4"/>
@@ -10599,7 +11373,9 @@
       </c>
       <c r="B294" s="4"/>
       <c r="C294" s="4"/>
-      <c r="D294" s="4"/>
+      <c r="D294" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="E294" s="4"/>
       <c r="F294" s="4"/>
       <c r="G294" s="4"/>
@@ -10615,7 +11391,9 @@
       </c>
       <c r="B295" s="4"/>
       <c r="C295" s="4"/>
-      <c r="D295" s="4"/>
+      <c r="D295" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="E295" s="4"/>
       <c r="F295" s="4"/>
       <c r="G295" s="4"/>
@@ -10631,7 +11409,9 @@
       </c>
       <c r="B296" s="4"/>
       <c r="C296" s="4"/>
-      <c r="D296" s="4"/>
+      <c r="D296" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="E296" s="4"/>
       <c r="F296" s="4"/>
       <c r="G296" s="4"/>
@@ -10647,7 +11427,9 @@
       </c>
       <c r="B297" s="4"/>
       <c r="C297" s="4"/>
-      <c r="D297" s="4"/>
+      <c r="D297" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="E297" s="4"/>
       <c r="F297" s="4"/>
       <c r="G297" s="4"/>
@@ -10663,7 +11445,9 @@
       </c>
       <c r="B298" s="4"/>
       <c r="C298" s="4"/>
-      <c r="D298" s="4"/>
+      <c r="D298" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="E298" s="4"/>
       <c r="F298" s="4"/>
       <c r="G298" s="4"/>
@@ -10679,7 +11463,9 @@
       </c>
       <c r="B299" s="4"/>
       <c r="C299" s="4"/>
-      <c r="D299" s="4"/>
+      <c r="D299" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="E299" s="4"/>
       <c r="F299" s="4"/>
       <c r="G299" s="4"/>
@@ -10695,7 +11481,9 @@
       </c>
       <c r="B300" s="4"/>
       <c r="C300" s="4"/>
-      <c r="D300" s="4"/>
+      <c r="D300" s="4" t="s">
+        <v>17</v>
+      </c>
       <c r="E300" s="4"/>
       <c r="F300" s="4"/>
       <c r="G300" s="4"/>
@@ -10711,7 +11499,9 @@
       </c>
       <c r="B301" s="4"/>
       <c r="C301" s="4"/>
-      <c r="D301" s="4"/>
+      <c r="D301" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="E301" s="4"/>
       <c r="F301" s="4"/>
       <c r="G301" s="4"/>
@@ -10727,7 +11517,9 @@
       </c>
       <c r="B302" s="4"/>
       <c r="C302" s="4"/>
-      <c r="D302" s="4"/>
+      <c r="D302" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="E302" s="4"/>
       <c r="F302" s="4"/>
       <c r="G302" s="4"/>
@@ -10743,7 +11535,9 @@
       </c>
       <c r="B303" s="4"/>
       <c r="C303" s="4"/>
-      <c r="D303" s="4"/>
+      <c r="D303" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="E303" s="4"/>
       <c r="F303" s="4"/>
       <c r="G303" s="4"/>
@@ -10759,7 +11553,9 @@
       </c>
       <c r="B304" s="4"/>
       <c r="C304" s="4"/>
-      <c r="D304" s="4"/>
+      <c r="D304" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="E304" s="4"/>
       <c r="F304" s="4"/>
       <c r="G304" s="4"/>
@@ -10775,7 +11571,9 @@
       </c>
       <c r="B305" s="4"/>
       <c r="C305" s="4"/>
-      <c r="D305" s="4"/>
+      <c r="D305" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="E305" s="4"/>
       <c r="F305" s="4"/>
       <c r="G305" s="4"/>
@@ -10791,7 +11589,9 @@
       </c>
       <c r="B306" s="4"/>
       <c r="C306" s="4"/>
-      <c r="D306" s="4"/>
+      <c r="D306" s="4" t="s">
+        <v>17</v>
+      </c>
       <c r="E306" s="4"/>
       <c r="F306" s="4"/>
       <c r="G306" s="4"/>
@@ -10807,7 +11607,9 @@
       </c>
       <c r="B307" s="4"/>
       <c r="C307" s="4"/>
-      <c r="D307" s="4"/>
+      <c r="D307" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="E307" s="4"/>
       <c r="F307" s="4"/>
       <c r="G307" s="4"/>
@@ -10823,7 +11625,9 @@
       </c>
       <c r="B308" s="4"/>
       <c r="C308" s="4"/>
-      <c r="D308" s="4"/>
+      <c r="D308" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="E308" s="4"/>
       <c r="F308" s="4"/>
       <c r="G308" s="4"/>
@@ -10839,7 +11643,9 @@
       </c>
       <c r="B309" s="4"/>
       <c r="C309" s="4"/>
-      <c r="D309" s="4"/>
+      <c r="D309" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="E309" s="4"/>
       <c r="F309" s="4"/>
       <c r="G309" s="4"/>
